--- a/biology/Zoologie/Hadronyche_marracoonda/Hadronyche_marracoonda.xlsx
+++ b/biology/Zoologie/Hadronyche_marracoonda/Hadronyche_marracoonda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hadronyche marracoonda est une espèce d'araignées mygalomorphes de la famille des Atracidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hadronyche marracoonda est une espèce d'araignées mygalomorphes de la famille des Atracidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans la cordillère australienne dans le Sud-Est de la Nouvelle-Galles du Sud et dans le Territoire de la capitale australienne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans la cordillère australienne dans le Sud-Est de la Nouvelle-Galles du Sud et dans le Territoire de la capitale australienne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 9,68 mm de long sur 8,86 mm et l'abdomen 9,51 mm de long sur 7,13 mm et la carapace de la femelle paratype mesure 11,64 mm de long sur 9,35 mm et l'abdomen 10,88 mm de long sur 8,84 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 9,68 mm de long sur 8,86 mm et l'abdomen 9,51 mm de long sur 7,13 mm et la carapace de la femelle paratype mesure 11,64 mm de long sur 9,35 mm et l'abdomen 10,88 mm de long sur 8,84 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 2010 : A revision of the Australian funnel-web spiders (Hexathelidae: Atracinae). Records of the Australian Museum, vol. 62, p. 285-392 (texte intégral).</t>
         </is>
